--- a/数据整理/stocks/A股/创业板/300308-中际旭创.xlsx
+++ b/数据整理/stocks/A股/创业板/300308-中际旭创.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008050</t>
+          <t>001879</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>同泰慧择混合A</t>
+          <t>长城创业板指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>11.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4438</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008051</t>
+          <t>006928</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>同泰慧择混合C</t>
+          <t>长城创业板指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005844</t>
+          <t>008326</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方人工智能主题混合</t>
+          <t>西藏东财中证通信技术主题指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.01</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161628</t>
+          <t>008327</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>融通中证云计算与大数据主题指数（LOF）</t>
+          <t>西藏东财中证通信技术主题指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008326</t>
+          <t>673010</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数A</t>
+          <t>西部利得新动向混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>96.24</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008327</t>
+          <t>001223</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数C</t>
+          <t>鹏华文化传媒娱乐股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>96.24</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001266</t>
+          <t>161222</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国投瑞银招财灵活配置混合</t>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>84.06</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>673010</t>
+          <t>121010</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>西部利得新动向混合</t>
+          <t>国投瑞银瑞源灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>67.50</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>72.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>2.98</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001879</t>
+          <t>001266</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长城创业板指数增强A</t>
+          <t>国投瑞银招财灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006928</t>
+          <t>005844</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长城创业板指数增强C</t>
+          <t>东方人工智能主题混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001223</t>
+          <t>161628</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鹏华文化传媒娱乐股票</t>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>83.23</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>121010</t>
+          <t>008050</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国投瑞银瑞源灵活配置混合</t>
+          <t>同泰慧择混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>72.83</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004833</t>
+          <t>008051</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>先锋聚利灵活配置混合A</t>
+          <t>同泰慧择混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8.01</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -856,25 +996,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004834</t>
+          <t>004833</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>先锋聚利灵活配置混合C</t>
+          <t>先锋聚利灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>91.97</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>8.01</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>3</v>
       </c>
     </row>
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>161222</t>
+          <t>004834</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+          <t>先锋聚利灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>81.50</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -917,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,15 +1098,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -968,15 +1138,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>37.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.55</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.84</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6988</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003659</t>
+          <t>004958</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>山西证券策略精选灵活配置混合</t>
+          <t>圆信永丰优享生活灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>65.31</t>
+          <t>21.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3823</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004833</t>
+          <t>004959</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>先锋聚利灵活配置混合A</t>
+          <t>圆信永丰优悦生活混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>80.69</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004834</t>
+          <t>310318</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>先锋聚利灵活配置混合C</t>
+          <t>申万菱信沪深300指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>80.69</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004958</t>
+          <t>003659</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>圆信永丰优享生活灵活配置混合</t>
+          <t>山西证券策略精选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>310318</t>
+          <t>007804</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300指数增强A</t>
+          <t>申万菱信沪深300指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>91.36</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007804</t>
+          <t>004833</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>申万菱信沪深300指数增强C</t>
+          <t>先锋聚利灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.36</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004959</t>
+          <t>004834</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>圆信永丰优悦生活混合</t>
+          <t>先锋聚利灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>79.70</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300308-中际旭创.xlsx
+++ b/数据整理/stocks/A股/创业板/300308-中际旭创.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9865</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003062</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>31.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003063</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>31.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300308-中际旭创.xlsx
+++ b/数据整理/stocks/A股/创业板/300308-中际旭创.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1828,4 +1829,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9455</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2793</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300308-中际旭创.xlsx
+++ b/数据整理/stocks/A股/创业板/300308-中际旭创.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2037,4 +2038,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300308-中际旭创.xlsx
+++ b/数据整理/stocks/A股/创业板/300308-中际旭创.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2046,7 +2047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2057,17 +2058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2077,14 +2098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.34</v>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>233.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8325</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2093,14 +2136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6128</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.29</v>
       </c>
     </row>
     <row r="4">
@@ -2109,14 +2174,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.33</v>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3590</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2125,13 +2212,1063 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1143</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8588</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7043</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6336</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5740</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5596</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3182</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2506</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2308</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2082</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>15</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300308-中际旭创.xlsx
+++ b/数据整理/stocks/A股/创业板/300308-中际旭创.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3167,7 +3168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3178,17 +3179,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3198,14 +3219,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.55</v>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7236</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3214,14 +3257,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5123</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.34</v>
       </c>
     </row>
     <row r="4">
@@ -3230,14 +3295,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.29</v>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1040</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3246,14 +3333,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.33</v>
+          <t>014677</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚至远动力混合E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1040</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3262,13 +3371,623 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>54.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8550</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3452</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2499</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2392</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2110</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1997</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>15</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300308-中际旭创.xlsx
+++ b/数据整理/stocks/A股/创业板/300308-中际旭创.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3870,7 +3871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3881,17 +3882,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3901,14 +3922,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.1</v>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2605</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3917,14 +3960,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.55</v>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2049</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3933,14 +3998,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.34</v>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7150</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3949,14 +4036,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.29</v>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7135</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3965,14 +4074,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.33</v>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7131</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -3981,13 +4112,903 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5758</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4657</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3394</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2861</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014048</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2810</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2459</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014349</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014519</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF联接A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014328</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>64.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014327</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>64.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014536</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>15</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300308-中际旭创.xlsx
+++ b/数据整理/stocks/A股/创业板/300308-中际旭创.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>7.36</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>8.1</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>15.55</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>1.34</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>15</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.26</v>
       </c>
     </row>
@@ -600,6 +617,708 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0426</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9605</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2916</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2886</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014048</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014349</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012321</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012322</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>64.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015573</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015364</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1603,7 +2322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2305,7 +3024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3425,7 +4144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3633,7 +4352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4031,7 +4750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4391,7 +5110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300308-中际旭创.xlsx
+++ b/数据整理/stocks/A股/创业板/300308-中际旭创.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>3.73</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>7.36</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>8.1</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>15.55</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>1.34</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>15</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.26</v>
       </c>
     </row>
@@ -616,7 +633,1979 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4438</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0155</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8173</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4176</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3383</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014048</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2768</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2610</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2410</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2267</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015305</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014349</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015306</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>016157</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富数字经济核心产业一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014305</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>851088</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015364</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>850010</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>016158</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富数字经济核心产业一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014306</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>851099</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>016159</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富数字经济核心产业一年持有期混合D</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1318,7 +3307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2322,7 +4311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3024,7 +5013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4144,7 +6133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4352,7 +6341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4750,7 +6739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5108,630 +7097,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001879</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>长城创业板指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4438</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006928</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长城创业板指数增强C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2037</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008326</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>西藏东财中证通信技术主题指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>96.24</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1875</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008327</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>西藏东财中证通信技术主题指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>96.24</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1169</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>673010</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>西部利得新动向混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>67.50</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0825</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001223</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华文化传媒娱乐股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>83.23</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0535</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161222</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>81.50</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0468</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>121010</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>72.83</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0444</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001266</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国投瑞银招财灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>84.06</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0219</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005844</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>东方人工智能主题混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>87.01</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0175</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>161628</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>融通中证云计算与大数据主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0150</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008050</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>同泰慧择混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008051</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>同泰慧择混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004833</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>先锋聚利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>8.01</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004834</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>先锋聚利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>8.01</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>